--- a/Dataset/couples/Diego_settings.xlsx
+++ b/Dataset/couples/Diego_settings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Python-Squad\Dataset\couples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B67043-E190-4EF1-8D8E-0B5BA4B42A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3012E31-ADA9-420A-921D-9308DBE112F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5846077-7AB3-4D73-84EB-733BBF692F68}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>RUN</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Cerberus_Diego.xlsx</t>
+  </si>
+  <si>
+    <t>NUM</t>
   </si>
 </sst>
 </file>
@@ -143,9 +146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -289,7 +292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -431,7 +434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -439,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75D65CF-3D52-4EC7-88C7-2FC49D52543E}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,7 +454,10 @@
     <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,7 +465,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -467,7 +476,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -475,7 +487,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -483,7 +498,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -491,7 +509,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>

--- a/Dataset/couples/Diego_settings.xlsx
+++ b/Dataset/couples/Diego_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Python-Squad\Dataset\couples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3012E31-ADA9-420A-921D-9308DBE112F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199359A-D118-4C01-A870-AF0E4003E96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5846077-7AB3-4D73-84EB-733BBF692F68}"/>
+    <workbookView xWindow="2592" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{E5846077-7AB3-4D73-84EB-733BBF692F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -50,19 +50,19 @@
     <t>Diego_13_09_2023_AM_2.csv</t>
   </si>
   <si>
-    <t>Diego_15_09_2023_AM_2.csv</t>
-  </si>
-  <si>
-    <t>Diego_15_09_2023_PM_2.csv</t>
-  </si>
-  <si>
-    <t>Diego_16_09_2023_AM_2.csv</t>
-  </si>
-  <si>
     <t>Cerberus_Diego.xlsx</t>
   </si>
   <si>
     <t>NUM</t>
+  </si>
+  <si>
+    <t>BM.Dh.160923.1000.csv</t>
+  </si>
+  <si>
+    <t>BM.Dh.150923.1800.csv</t>
+  </si>
+  <si>
+    <t>BM.Dh.150923.1130.csv</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,10 +492,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Dataset/couples/Diego_settings.xlsx
+++ b/Dataset/couples/Diego_settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utente\Desktop\Python-Squad\Dataset\couples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7199359A-D118-4C01-A870-AF0E4003E96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F6C138-1726-4A59-9A87-29EBFDADC028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="1464" windowWidth="17280" windowHeight="8880" xr2:uid="{E5846077-7AB3-4D73-84EB-733BBF692F68}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E5846077-7AB3-4D73-84EB-733BBF692F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>CONDITIONS FILE</t>
   </si>
   <si>
-    <t>Diego_12_09_2023_AM.csv</t>
-  </si>
-  <si>
-    <t>Diego_13_09_2023_AM_2.csv</t>
-  </si>
-  <si>
     <t>Cerberus_Diego.xlsx</t>
   </si>
   <si>
@@ -63,6 +57,12 @@
   </si>
   <si>
     <t>BM.Dh.150923.1130.csv</t>
+  </si>
+  <si>
+    <t>BM.Dh.130923.0830.csv</t>
+  </si>
+  <si>
+    <t>BM.Dh.120923.0900.csv</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,7 +456,7 @@
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,10 +481,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -492,10 +492,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -503,10 +503,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -514,10 +514,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
